--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\DM132\DM132-git\Client\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\github\tools\template\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -189,9 +189,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>yealy</t>
-  </si>
-  <si>
     <t>我今天生日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -508,6 +505,10 @@
   </si>
   <si>
     <t>公司打开提醒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yearly</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +865,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -947,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -958,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -974,10 +975,10 @@
         <v>259200</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -985,13 +986,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1000,10 +1001,10 @@
         <v>86400</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1011,13 +1012,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1026,10 +1027,10 @@
         <v>86400</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1037,13 +1038,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1052,10 +1053,10 @@
         <v>86400</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1063,13 +1064,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1078,10 +1079,10 @@
         <v>86400</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1089,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1104,10 +1105,10 @@
         <v>86400</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1115,13 +1116,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1130,10 +1131,10 @@
         <v>86400</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1141,13 +1142,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1156,10 +1157,10 @@
         <v>86400</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1167,13 +1168,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1182,10 +1183,10 @@
         <v>86400</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1193,13 +1194,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1208,10 +1209,10 @@
         <v>86400</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1219,13 +1220,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1234,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1245,13 +1246,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1260,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1271,13 +1272,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1286,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1303,7 @@
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>"daily,weekly,monthly,yealy,once"</formula1>
+      <formula1>"daily,weekly,monthly,yearly,once"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiewendan\tools\template\config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -16,13 +24,14 @@
     <author>谢锦春</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <charset val="134"/>
           </rPr>
           <t>谢锦春:
 lunar-&gt;农历
@@ -30,13 +39,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
+            <charset val="134"/>
           </rPr>
           <t>谢锦春:
 0-&gt;周一
@@ -54,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +92,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>msg</t>
     </r>
@@ -95,6 +107,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>str</t>
     </r>
@@ -105,6 +119,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>int</t>
     </r>
@@ -124,6 +140,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>12:0:0</t>
     </r>
@@ -140,6 +158,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-3-8</t>
     </r>
@@ -153,6 +173,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-5-22</t>
     </r>
@@ -169,6 +191,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-7-2</t>
     </r>
@@ -182,6 +206,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-9-10</t>
     </r>
@@ -195,6 +221,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-10-7</t>
     </r>
@@ -208,6 +236,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-5-20</t>
     </r>
@@ -221,6 +251,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-10-8</t>
     </r>
@@ -234,6 +266,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-10-10</t>
     </r>
@@ -247,6 +281,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-6-28</t>
     </r>
@@ -260,6 +296,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-12-3</t>
     </r>
@@ -273,6 +311,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-12-10</t>
     </r>
@@ -289,6 +329,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2021-3-30</t>
     </r>
@@ -305,21 +347,27 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>2020-4-23</t>
     </r>
   </si>
   <si>
     <t>公司打开提醒</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>小宝，你最棒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -327,19 +375,23 @@
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -381,56 +433,102 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -632,7 +730,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -651,7 +749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -707,7 +805,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -733,7 +831,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -759,7 +857,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +883,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +909,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +935,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -863,7 +961,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +987,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,9 +1000,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -921,7 +1025,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -940,7 +1044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,9 +1291,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1203,7 +1313,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1222,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,7 +1362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,7 +1388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1414,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1330,7 +1440,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1356,7 +1466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1382,7 +1492,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1408,7 +1518,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1434,7 +1544,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1460,7 +1570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1473,96 +1583,106 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.8516" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:8" ht="15.95" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="4">
@@ -1571,24 +1691,24 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:8" ht="15.95" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="4">
@@ -1598,24 +1718,24 @@
         <f>3*86400</f>
         <v>259200</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s" s="3">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:8" ht="15.95" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="4">
@@ -1624,24 +1744,24 @@
       <c r="F5" s="4">
         <v>86400</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4">
@@ -1650,24 +1770,24 @@
       <c r="F6" s="4">
         <v>86400</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s" s="3">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:8" ht="15.95" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4">
@@ -1676,24 +1796,24 @@
       <c r="F7" s="4">
         <v>86400</v>
       </c>
-      <c r="G7" t="s" s="2">
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s" s="3">
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:8" ht="15.95" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s" s="3">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4">
@@ -1702,24 +1822,24 @@
       <c r="F8" s="4">
         <v>86400</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s" s="3">
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:8" ht="15.95" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="4">
@@ -1728,24 +1848,24 @@
       <c r="F9" s="4">
         <v>86400</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s" s="3">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4">
@@ -1754,24 +1874,24 @@
       <c r="F10" s="4">
         <v>86400</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:8" ht="15.95" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="4">
@@ -1780,24 +1900,24 @@
       <c r="F11" s="4">
         <v>86400</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:8" ht="15.95" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="4">
@@ -1806,24 +1926,24 @@
       <c r="F12" s="4">
         <v>86400</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:8" ht="15.95" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="4">
@@ -1832,24 +1952,24 @@
       <c r="F13" s="4">
         <v>86400</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:8" ht="15.95" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="4">
@@ -1858,24 +1978,24 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" spans="1:8" ht="15.95" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="4">
@@ -1884,24 +2004,24 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:8" ht="15.95" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="4">
@@ -1910,14 +2030,41 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" s="3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"lunar,solar,calendar_type"</formula1>
@@ -1931,22 +2078,21 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"daily,weekly,monthly,yearly,once,str"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17">
       <formula1>"lunar,solar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G17">
       <formula1>"daily,weekly,monthly,yearly,once"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -355,13 +355,6 @@
   </si>
   <si>
     <t>公司打开提醒</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>小宝，你最棒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -435,13 +428,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1602,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2037,32 +2029,6 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="7">
@@ -2078,13 +2044,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"daily,weekly,monthly,yearly,once,str"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C16">
       <formula1>"lunar,solar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G16">
       <formula1>"daily,weekly,monthly,yearly,once"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -354,7 +354,36 @@
     </r>
   </si>
   <si>
-    <t>公司打开提醒</t>
+    <t>公司打卡提醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-5-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:0:0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-1-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP PDU找曾老师更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队月初报告提醒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取社保卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -428,12 +457,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1594,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2025,8 +2055,86 @@
       <c r="G16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2044,13 +2152,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"daily,weekly,monthly,yearly,once,str"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C19">
       <formula1>"lunar,solar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E19">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G19">
       <formula1>"daily,weekly,monthly,yearly,once"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -383,6 +383,17 @@
   </si>
   <si>
     <t>领取社保卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>12:0:0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注、坚持</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -457,13 +468,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1624,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2137,6 +2149,32 @@
         <v>52</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="7">
@@ -2152,13 +2190,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"daily,weekly,monthly,yearly,once,str"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C20">
       <formula1>"lunar,solar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
       <formula1>"daily,weekly,monthly,yearly,once"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1649,7 +1649,7 @@
     <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.875" style="1"/>
   </cols>

--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiewendan\tools\template\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\xiewendan\tools\template\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -386,15 +386,121 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>daily</t>
-  </si>
-  <si>
     <t>12:0:0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>专注、坚持</t>
+    <t>2020-12-2</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-3</t>
+  </si>
+  <si>
+    <t>2020-12-4</t>
+  </si>
+  <si>
+    <t>2020-12-5</t>
+  </si>
+  <si>
+    <t>2020-12-6</t>
+  </si>
+  <si>
+    <t>2020-12-7</t>
+  </si>
+  <si>
+    <t>2020-12-8</t>
+  </si>
+  <si>
+    <t>2020-12-9</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-12</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注、坚持--小小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注、坚持--leetcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注、坚持--leetcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注、坚持--跑步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注、坚持--财报</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注、坚持--财报</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekly</t>
   </si>
 </sst>
 </file>
@@ -1636,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2154,25 +2260,727 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2190,13 +2998,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"daily,weekly,monthly,yearly,once,str"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C47">
       <formula1>"lunar,solar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E47">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G47">
       <formula1>"daily,weekly,monthly,yearly,once"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -480,27 +480,40 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>专注、坚持--leetcode</t>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>专注、坚持--leetcode10题</t>
+  </si>
+  <si>
+    <t>专注、坚持--leetcode10题</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>专注、坚持--leetcode</t>
+    <t>专注、坚持--跑步1公里</t>
+  </si>
+  <si>
+    <t>专注、坚持--跑步1公里</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>专注、坚持--跑步</t>
+    <t>专注、坚持--财报10页</t>
+  </si>
+  <si>
+    <t>专注、坚持--财报10页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>专注、坚持--财报</t>
+    <t>专注、坚持--跑步1公里</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>专注、坚持--财报</t>
+    <t>专注、坚持--跑步1公里</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>weekly</t>
+    <t>专注、坚持--跑步1公里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1745,7 +1758,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2275,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.95" customHeight="1">
@@ -2301,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1">
@@ -2327,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.95" customHeight="1">
@@ -2353,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1">
@@ -2379,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.95" customHeight="1">
@@ -2405,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.95" customHeight="1">
@@ -2431,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.95" customHeight="1">
@@ -2457,10 +2470,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.95" customHeight="1">
@@ -2483,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.95" customHeight="1">
@@ -2509,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.95" customHeight="1">
@@ -2535,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.95" customHeight="1">
@@ -2561,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.95" customHeight="1">
@@ -2587,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.95" customHeight="1">
@@ -2613,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.95" customHeight="1">
@@ -2639,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1">
@@ -2665,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.95" customHeight="1">
@@ -2691,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1">
@@ -2717,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.95" customHeight="1">
@@ -2743,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.95" customHeight="1">
@@ -2769,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.95" customHeight="1">
@@ -2795,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.95" customHeight="1">
@@ -2821,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.95" customHeight="1">
@@ -2847,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>87</v>
@@ -2873,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>86</v>
@@ -2899,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.95" customHeight="1">
@@ -2925,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>86</v>
@@ -2951,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.95" customHeight="1">
@@ -2977,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\xiewendan\tools\template\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiewendan\tools\template\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -478,9 +478,6 @@
   <si>
     <t>专注、坚持--小小</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>weekly</t>
   </si>
   <si>
     <t>专注、坚持--leetcode10题</t>
@@ -1757,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2288,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.95" customHeight="1">
@@ -2314,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1">
@@ -2340,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.95" customHeight="1">
@@ -2366,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1">
@@ -2392,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.95" customHeight="1">
@@ -2418,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.95" customHeight="1">
@@ -2444,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.95" customHeight="1">
@@ -2470,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.95" customHeight="1">
@@ -2496,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.95" customHeight="1">
@@ -2522,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.95" customHeight="1">
@@ -2548,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.95" customHeight="1">
@@ -2574,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.95" customHeight="1">
@@ -2600,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.95" customHeight="1">
@@ -2626,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.95" customHeight="1">
@@ -2652,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>82</v>
@@ -2678,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>82</v>
@@ -2704,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>82</v>
@@ -2730,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>82</v>
@@ -2756,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>82</v>
@@ -2782,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>82</v>
@@ -2808,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>82</v>
@@ -2834,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.95" customHeight="1">
@@ -2860,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.95" customHeight="1">
@@ -2886,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.95" customHeight="1">
@@ -2912,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.95" customHeight="1">
@@ -2938,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.95" customHeight="1">
@@ -2964,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.95" customHeight="1">
@@ -2990,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -153,18 +153,6 @@
     <t>我今天生日</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2020-3-8</t>
-    </r>
-  </si>
-  <si>
     <t>蛋仔3天后生日</t>
   </si>
   <si>
@@ -386,130 +374,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12:0:0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-3</t>
-  </si>
-  <si>
-    <t>2020-12-4</t>
-  </si>
-  <si>
-    <t>2020-12-5</t>
-  </si>
-  <si>
-    <t>2020-12-6</t>
-  </si>
-  <si>
-    <t>2020-12-7</t>
-  </si>
-  <si>
-    <t>2020-12-8</t>
-  </si>
-  <si>
-    <t>2020-12-9</t>
-  </si>
-  <si>
-    <t>2020-12-10</t>
-  </si>
-  <si>
-    <t>2020-12-11</t>
-  </si>
-  <si>
-    <t>2020-12-12</t>
-  </si>
-  <si>
-    <t>2020-12-13</t>
-  </si>
-  <si>
-    <t>2020-12-14</t>
-  </si>
-  <si>
-    <t>2020-12-15</t>
-  </si>
-  <si>
-    <t>2020-12-16</t>
-  </si>
-  <si>
-    <t>2020-12-17</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>2020-12-19</t>
-  </si>
-  <si>
-    <t>2020-12-20</t>
-  </si>
-  <si>
-    <t>2020-12-21</t>
-  </si>
-  <si>
-    <t>2020-12-22</t>
-  </si>
-  <si>
-    <t>2020-12-23</t>
-  </si>
-  <si>
-    <t>2020-12-24</t>
-  </si>
-  <si>
-    <t>2020-12-25</t>
-  </si>
-  <si>
-    <t>2020-12-26</t>
-  </si>
-  <si>
-    <t>2020-12-27</t>
-  </si>
-  <si>
-    <t>2020-12-28</t>
-  </si>
-  <si>
-    <t>2020-12-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专注、坚持--小小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专注、坚持--leetcode10题</t>
-  </si>
-  <si>
-    <t>专注、坚持--leetcode10题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专注、坚持--跑步1公里</t>
-  </si>
-  <si>
-    <t>专注、坚持--跑步1公里</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专注、坚持--财报10页</t>
-  </si>
-  <si>
-    <t>专注、坚持--财报10页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专注、坚持--跑步1公里</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专注、坚持--跑步1公里</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专注、坚持--跑步1公里</t>
+    <t>2020-3-18</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -584,14 +449,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1752,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1852,8 +1716,8 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1872,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1">
@@ -1880,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1898,7 +1762,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1">
@@ -1906,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1924,7 +1788,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.95" customHeight="1">
@@ -1932,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1950,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1">
@@ -1958,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1976,7 +1840,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.95" customHeight="1">
@@ -1984,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -2002,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1">
@@ -2010,7 +1874,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2028,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.95" customHeight="1">
@@ -2036,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -2054,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1">
@@ -2062,7 +1926,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -2080,7 +1944,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.95" customHeight="1">
@@ -2088,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -2106,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.95" customHeight="1">
@@ -2114,10 +1978,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>14</v>
@@ -2129,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.95" customHeight="1">
@@ -2140,10 +2004,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
@@ -2155,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1">
@@ -2166,10 +2030,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -2181,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.95" customHeight="1">
@@ -2192,13 +2056,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2207,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.95" customHeight="1">
@@ -2218,13 +2082,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -2233,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.95" customHeight="1">
@@ -2244,13 +2108,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2259,738 +2123,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A35" s="4">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3008,13 +2144,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"daily,weekly,monthly,yearly,once,str"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C19">
       <formula1>"lunar,solar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E19">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G19">
       <formula1>"daily,weekly,monthly,yearly,once"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template/config/excel/scheduler.xlsx
+++ b/template/config/excel/scheduler.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -201,9 +201,6 @@
     </r>
   </si>
   <si>
-    <t>老姐明天生日</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -216,9 +213,6 @@
     </r>
   </si>
   <si>
-    <t>老姐、外婆明天生日</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -294,40 +288,7 @@
     <t>小橙子明天生日</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2020-12-10</t>
-    </r>
-  </si>
-  <si>
     <t>monthly</t>
-  </si>
-  <si>
-    <t>存钱到工行两张卡，买流量，房租，还信用卡，还花呗</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2021-3-30</t>
-    </r>
-  </si>
-  <si>
-    <t>once</t>
-  </si>
-  <si>
-    <t>取消移动89元套餐</t>
   </si>
   <si>
     <r>
@@ -346,10 +307,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020-5-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>10:0:0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -362,19 +319,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>团队月初报告提醒</t>
+    <t>2020-3-18</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020-12-1</t>
+    <t>二姐明天生日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>领取社保卡</t>
+    <t>大姐明天生日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2020-3-18</t>
+    <t>2020-8-13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄妈明天生日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1616,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1717,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1813,8 +1774,8 @@
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1">
@@ -1822,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1839,8 +1800,8 @@
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.95" customHeight="1">
@@ -1848,7 +1809,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1866,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1">
@@ -1874,7 +1835,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1892,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.95" customHeight="1">
@@ -1900,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1918,7 +1879,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1">
@@ -1926,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1944,7 +1905,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.95" customHeight="1">
@@ -1952,7 +1913,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1970,18 +1931,18 @@
         <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.95" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>14</v>
@@ -1990,21 +1951,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.95" customHeight="1">
       <c r="A15" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -2019,24 +1980,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1">
       <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2045,88 +2006,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.95" customHeight="1">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2144,13 +2027,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"daily,weekly,monthly,yearly,once,str"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C16">
       <formula1>"lunar,solar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
       <formula1>"0,1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G16">
       <formula1>"daily,weekly,monthly,yearly,once"</formula1>
     </dataValidation>
   </dataValidations>
